--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\ccs\BFoCPAbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/ccs/BFoCPAbS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805DCBE1-EE3D-4DFA-AD94-141E73B46DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5868A75-23D7-894F-8CDC-56932DE20B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="261">
   <si>
     <t>Notes</t>
   </si>
@@ -821,6 +821,9 @@
   </si>
   <si>
     <t>Total Commercial CO2 Demand</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1033,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1133,6 +1136,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -6499,20 +6503,26 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="103.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="103.5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="60">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
@@ -6520,75 +6530,75 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="19">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="19">
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="28" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="19">
         <v>2019</v>
       </c>
@@ -6596,7 +6606,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
         <v>126</v>
       </c>
@@ -6604,7 +6614,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="29" t="s">
         <v>127</v>
       </c>
@@ -6612,146 +6622,146 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="19" t="s">
         <v>128</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="19"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="28" t="s">
         <v>129</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="19">
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="19"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="19">
         <v>2020</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="19"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="30" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="19"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" s="19">
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B42" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>142</v>
       </c>
@@ -6775,20 +6785,20 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>223</v>
       </c>
@@ -6801,7 +6811,7 @@
       <c r="H1" s="41"/>
       <c r="I1" s="41"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>222</v>
       </c>
@@ -6830,7 +6840,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -6853,7 +6863,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -6873,7 +6883,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>212</v>
       </c>
@@ -6896,7 +6906,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>211</v>
       </c>
@@ -6919,7 +6929,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -6945,7 +6955,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>207</v>
       </c>
@@ -6968,7 +6978,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -6988,7 +6998,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -7011,7 +7021,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -7031,7 +7041,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -7057,7 +7067,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -7077,7 +7087,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -7097,7 +7107,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -7123,7 +7133,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>193</v>
       </c>
@@ -7146,7 +7156,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -7172,7 +7182,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -7198,7 +7208,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -7221,7 +7231,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>185</v>
       </c>
@@ -7244,7 +7254,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -7270,7 +7280,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -7290,7 +7300,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -7316,7 +7326,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -7339,7 +7349,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>171</v>
       </c>
@@ -7359,7 +7369,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>169</v>
       </c>
@@ -7382,7 +7392,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -7405,7 +7415,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>165</v>
       </c>
@@ -7428,7 +7438,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -7448,7 +7458,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -7474,13 +7484,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
         <v>155</v>
       </c>
       <c r="B34" s="35"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>154</v>
       </c>
@@ -7489,7 +7499,7 @@
         <v>28.360000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>153</v>
       </c>
@@ -7498,13 +7508,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
         <v>152</v>
       </c>
       <c r="B39" s="32"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -7517,7 +7527,7 @@
         <v>0.6921272158498436</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -7530,7 +7540,7 @@
         <v>4.6923879040667367E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -7543,7 +7553,7 @@
         <v>7.8206465067778938E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -7556,7 +7566,7 @@
         <v>5.7351407716371226E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>147</v>
       </c>
@@ -7569,7 +7579,7 @@
         <v>3.6496350364963501E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -7582,7 +7592,7 @@
         <v>2.0855057351407719E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -7595,7 +7605,7 @@
         <v>3.6235662148070912E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -7608,7 +7618,7 @@
         <v>5.7351407716371219E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -7643,30 +7653,30 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>259</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -7674,7 +7684,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -7682,7 +7692,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -7693,7 +7703,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -7704,19 +7714,19 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>257</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="58" t="s">
         <v>255</v>
       </c>
@@ -7727,7 +7737,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
         <v>0.56999999999999995</v>
       </c>
@@ -7739,7 +7749,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="56">
         <v>0.34</v>
       </c>
@@ -7751,7 +7761,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
         <v>0.03</v>
       </c>
@@ -7763,7 +7773,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
         <v>0.03</v>
       </c>
@@ -7775,7 +7785,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="56">
         <v>0.02</v>
       </c>
@@ -7787,7 +7797,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
         <v>0.04</v>
       </c>
@@ -7799,49 +7809,49 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="56">
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="56" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>244</v>
       </c>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>70</v>
       </c>
@@ -7849,12 +7859,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>80</v>
       </c>
@@ -7862,12 +7872,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="34">
         <f>B5*B12</f>
         <v>82.524271844660205</v>
@@ -7876,8 +7886,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="55" t="s">
         <v>236</v>
       </c>
@@ -7888,7 +7898,7 @@
       <c r="F33" s="54"/>
       <c r="G33" s="53"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="51" t="s">
         <v>235</v>
@@ -7912,7 +7922,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
         <v>229</v>
       </c>
@@ -7943,7 +7953,7 @@
         <v>167.47572815533979</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="50" t="s">
         <v>228</v>
       </c>
@@ -7972,7 +7982,7 @@
         <v>33.486929491831802</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>227</v>
       </c>
@@ -8000,37 +8010,37 @@
         <v>57.76699029126214</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C38" s="45"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>'Operational Capacity'!B35</f>
         <v>28.360000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="31">
         <f>C36/A42</f>
         <v>0.87296479384337322</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="34">
         <f>A45*'Operational Capacity'!B36</f>
         <v>8.7296479384337324</v>
@@ -8050,19 +8060,19 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="27" customWidth="1"/>
+    <col min="1" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2">
         <f>SUM(C4,C6,C8,C10)/SUM(C4:C15)</f>
         <v>0.70194680559363876</v>
@@ -8072,7 +8082,7 @@
         <v>7.0422535211267609E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>78</v>
       </c>
@@ -8089,7 +8099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -8107,7 +8117,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -8125,7 +8135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -8143,7 +8153,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -8161,7 +8171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.35</v>
       </c>
@@ -8179,7 +8189,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.23</v>
       </c>
@@ -8197,7 +8207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -8215,7 +8225,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -8233,7 +8243,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.9</v>
       </c>
@@ -8251,7 +8261,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -8267,7 +8277,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.2</v>
       </c>
@@ -8285,7 +8295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.55000000000000004</v>
       </c>
@@ -8303,7 +8313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -8321,7 +8331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.3</v>
       </c>
@@ -8339,7 +8349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.33</v>
       </c>
@@ -8357,7 +8367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.5</v>
       </c>
@@ -8375,7 +8385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5.8</v>
       </c>
@@ -8393,7 +8403,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.14000000000000001</v>
       </c>
@@ -8411,7 +8421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.3</v>
       </c>
@@ -8429,7 +8439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.14000000000000001</v>
       </c>
@@ -8447,7 +8457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.21</v>
       </c>
@@ -8465,7 +8475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.15</v>
       </c>
@@ -8483,7 +8493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.31</v>
       </c>
@@ -8501,7 +8511,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.13</v>
       </c>
@@ -8519,7 +8529,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.3</v>
       </c>
@@ -8537,7 +8547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.12</v>
       </c>
@@ -8555,7 +8565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.43</v>
       </c>
@@ -8573,7 +8583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.09</v>
       </c>
@@ -8591,7 +8601,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.18</v>
       </c>
@@ -8609,7 +8619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.28999999999999998</v>
       </c>
@@ -8627,7 +8637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.15</v>
       </c>
@@ -8645,7 +8655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.16</v>
       </c>
@@ -8663,7 +8673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.08</v>
       </c>
@@ -8681,7 +8691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.13</v>
       </c>
@@ -8699,7 +8709,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.49</v>
       </c>
@@ -8717,7 +8727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.39</v>
       </c>
@@ -8735,7 +8745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.28999999999999998</v>
       </c>
@@ -8753,7 +8763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.13</v>
       </c>
@@ -8771,7 +8781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.34</v>
       </c>
@@ -8789,7 +8799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.22</v>
       </c>
@@ -8807,7 +8817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.13</v>
       </c>
@@ -8825,7 +8835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.19</v>
       </c>
@@ -8843,7 +8853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.27</v>
       </c>
@@ -8861,7 +8871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.15</v>
       </c>
@@ -8879,7 +8889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.16</v>
       </c>
@@ -8897,7 +8907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.19</v>
       </c>
@@ -8915,7 +8925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.32</v>
       </c>
@@ -8933,7 +8943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.22</v>
       </c>
@@ -8951,7 +8961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.86</v>
       </c>
@@ -8969,7 +8979,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -8987,7 +8997,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.5</v>
       </c>
@@ -9005,7 +9015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3.1</v>
       </c>
@@ -9023,7 +9033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.5</v>
       </c>
@@ -9039,7 +9049,7 @@
       </c>
       <c r="E56"/>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -9057,7 +9067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1.6</v>
       </c>
@@ -9075,7 +9085,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4.3</v>
       </c>
@@ -9093,7 +9103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5</v>
       </c>
@@ -9111,7 +9121,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1.4</v>
       </c>
@@ -9129,7 +9139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.18</v>
       </c>
@@ -9147,7 +9157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.4</v>
       </c>
@@ -9165,7 +9175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.18</v>
       </c>
@@ -9183,7 +9193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.32</v>
       </c>
@@ -9201,7 +9211,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4</v>
       </c>
@@ -9219,7 +9229,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -9237,7 +9247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5</v>
       </c>
@@ -9255,7 +9265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
@@ -9273,7 +9283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4.0999999999999996</v>
       </c>
@@ -9291,7 +9301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -9331,12 +9341,12 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>75</v>
       </c>
@@ -9348,47 +9358,47 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -9397,7 +9407,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -9406,17 +9416,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -9424,52 +9434,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -9477,12 +9487,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -9502,13 +9512,13 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="84.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -9546,7 +9556,7 @@
       <c r="AG1" s="7"/>
       <c r="AH1" s="7"/>
     </row>
-    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="21">
         <v>2018</v>
@@ -9648,7 +9658,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
@@ -9715,7 +9725,7 @@
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
     </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
@@ -9782,7 +9792,7 @@
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
     </row>
-    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>41</v>
       </c>
@@ -9849,7 +9859,7 @@
       <c r="AG5" s="15"/>
       <c r="AH5" s="15"/>
     </row>
-    <row r="6" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>51</v>
       </c>
@@ -9916,75 +9926,75 @@
       <c r="AG6" s="15"/>
       <c r="AH6" s="15"/>
     </row>
-    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
     </row>
-    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
     </row>
-    <row r="17" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
     </row>
-    <row r="29" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>2027</v>
       </c>
@@ -9992,7 +10002,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="34" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>37</v>
       </c>
@@ -10005,7 +10015,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>38</v>
       </c>
@@ -10018,7 +10028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>41</v>
       </c>
@@ -10031,7 +10041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>51</v>
       </c>
@@ -10044,10 +10054,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="13">
         <v>2018</v>
@@ -10149,7 +10159,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="40" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>37</v>
       </c>
@@ -10286,7 +10296,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>38</v>
       </c>
@@ -10423,7 +10433,7 @@
         <v>18.999999999999773</v>
       </c>
     </row>
-    <row r="42" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>41</v>
       </c>
@@ -10560,7 +10570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>51</v>
       </c>
@@ -10697,58 +10707,58 @@
         <v>21.494444444444525</v>
       </c>
     </row>
-    <row r="44" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
     </row>
-    <row r="45" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="N45" s="15"/>
       <c r="S45" s="15"/>
       <c r="AH45" s="15"/>
     </row>
-    <row r="46" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="N46" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
     </row>
-    <row r="49" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
     </row>
-    <row r="51" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
     </row>
-    <row r="52" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
     </row>
-    <row r="54" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
     </row>
-    <row r="58" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>27</v>
       </c>
@@ -10786,12 +10796,12 @@
       <c r="AG60" s="7"/>
       <c r="AH60" s="7"/>
     </row>
-    <row r="61" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>61</v>
       </c>
@@ -10892,7 +10902,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="63" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>62</v>
       </c>
@@ -10993,7 +11003,7 @@
         <v>455116000000000</v>
       </c>
     </row>
-    <row r="64" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>63</v>
       </c>
@@ -11094,7 +11104,7 @@
         <v>400057000000000</v>
       </c>
     </row>
-    <row r="65" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>80</v>
       </c>
@@ -11193,7 +11203,7 @@
       </c>
       <c r="AG65" s="16"/>
     </row>
-    <row r="66" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>64</v>
       </c>
@@ -11292,7 +11302,7 @@
       </c>
       <c r="AG66" s="16"/>
     </row>
-    <row r="67" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -11326,7 +11336,7 @@
       <c r="AF67" s="16"/>
       <c r="AG67" s="16"/>
     </row>
-    <row r="68" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>61</v>
       </c>
@@ -11425,7 +11435,7 @@
       </c>
       <c r="AG68" s="16"/>
     </row>
-    <row r="69" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>81</v>
       </c>
@@ -11524,7 +11534,7 @@
       </c>
       <c r="AG69" s="16"/>
     </row>
-    <row r="70" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>82</v>
       </c>
@@ -11623,7 +11633,7 @@
       </c>
       <c r="AG70" s="16"/>
     </row>
-    <row r="71" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>83</v>
       </c>
@@ -11722,7 +11732,7 @@
       </c>
       <c r="AG71" s="16"/>
     </row>
-    <row r="72" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>84</v>
       </c>
@@ -11821,7 +11831,7 @@
       </c>
       <c r="AG72" s="16"/>
     </row>
-    <row r="73" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>85</v>
       </c>
@@ -11920,7 +11930,7 @@
       </c>
       <c r="AG73" s="16"/>
     </row>
-    <row r="74" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>86</v>
       </c>
@@ -12019,7 +12029,7 @@
       </c>
       <c r="AG74" s="16"/>
     </row>
-    <row r="75" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>87</v>
       </c>
@@ -12118,7 +12128,7 @@
       </c>
       <c r="AG75" s="16"/>
     </row>
-    <row r="76" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>88</v>
       </c>
@@ -12217,7 +12227,7 @@
       </c>
       <c r="AG76" s="16"/>
     </row>
-    <row r="77" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>89</v>
       </c>
@@ -12316,7 +12326,7 @@
       </c>
       <c r="AG77" s="16"/>
     </row>
-    <row r="78" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>90</v>
       </c>
@@ -12415,7 +12425,7 @@
       </c>
       <c r="AG78" s="16"/>
     </row>
-    <row r="79" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>91</v>
       </c>
@@ -12514,7 +12524,7 @@
       </c>
       <c r="AG79" s="16"/>
     </row>
-    <row r="80" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>92</v>
       </c>
@@ -12613,7 +12623,7 @@
       </c>
       <c r="AG80" s="16"/>
     </row>
-    <row r="81" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>93</v>
       </c>
@@ -12712,7 +12722,7 @@
       </c>
       <c r="AG81" s="16"/>
     </row>
-    <row r="82" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>94</v>
       </c>
@@ -12811,7 +12821,7 @@
       </c>
       <c r="AG82" s="16"/>
     </row>
-    <row r="83" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>95</v>
       </c>
@@ -12910,7 +12920,7 @@
       </c>
       <c r="AG83" s="16"/>
     </row>
-    <row r="84" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>96</v>
       </c>
@@ -13009,7 +13019,7 @@
       </c>
       <c r="AG84" s="16"/>
     </row>
-    <row r="85" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>97</v>
       </c>
@@ -13108,7 +13118,7 @@
       </c>
       <c r="AG85" s="16"/>
     </row>
-    <row r="86" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>98</v>
       </c>
@@ -13207,7 +13217,7 @@
       </c>
       <c r="AG86" s="16"/>
     </row>
-    <row r="87" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>99</v>
       </c>
@@ -13306,7 +13316,7 @@
       </c>
       <c r="AG87" s="16"/>
     </row>
-    <row r="88" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>100</v>
       </c>
@@ -13405,7 +13415,7 @@
       </c>
       <c r="AG88" s="16"/>
     </row>
-    <row r="89" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>101</v>
       </c>
@@ -13504,7 +13514,7 @@
       </c>
       <c r="AG89" s="16"/>
     </row>
-    <row r="90" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>102</v>
       </c>
@@ -13603,7 +13613,7 @@
       </c>
       <c r="AG90" s="16"/>
     </row>
-    <row r="91" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>103</v>
       </c>
@@ -13702,7 +13712,7 @@
       </c>
       <c r="AG91" s="16"/>
     </row>
-    <row r="92" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>104</v>
       </c>
@@ -13801,7 +13811,7 @@
       </c>
       <c r="AG92" s="16"/>
     </row>
-    <row r="93" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>105</v>
       </c>
@@ -13900,7 +13910,7 @@
       </c>
       <c r="AG93" s="16"/>
     </row>
-    <row r="94" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>106</v>
       </c>
@@ -13999,7 +14009,7 @@
       </c>
       <c r="AG94" s="16"/>
     </row>
-    <row r="95" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>107</v>
       </c>
@@ -14098,7 +14108,7 @@
       </c>
       <c r="AG95" s="16"/>
     </row>
-    <row r="96" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>108</v>
       </c>
@@ -14197,7 +14207,7 @@
       </c>
       <c r="AG96" s="16"/>
     </row>
-    <row r="97" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>109</v>
       </c>
@@ -14296,7 +14306,7 @@
       </c>
       <c r="AG97" s="16"/>
     </row>
-    <row r="98" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>110</v>
       </c>
@@ -14395,7 +14405,7 @@
       </c>
       <c r="AG98" s="16"/>
     </row>
-    <row r="99" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>111</v>
       </c>
@@ -14494,7 +14504,7 @@
       </c>
       <c r="AG99" s="16"/>
     </row>
-    <row r="100" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>112</v>
       </c>
@@ -14593,7 +14603,7 @@
       </c>
       <c r="AG100" s="16"/>
     </row>
-    <row r="101" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>113</v>
       </c>
@@ -14692,7 +14702,7 @@
       </c>
       <c r="AG101" s="16"/>
     </row>
-    <row r="102" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>114</v>
       </c>
@@ -14791,7 +14801,7 @@
       </c>
       <c r="AG102" s="16"/>
     </row>
-    <row r="103" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>115</v>
       </c>
@@ -14890,7 +14900,7 @@
       </c>
       <c r="AG103" s="16"/>
     </row>
-    <row r="104" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>116</v>
       </c>
@@ -14989,7 +14999,7 @@
       </c>
       <c r="AG104" s="16"/>
     </row>
-    <row r="105" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>117</v>
       </c>
@@ -15088,7 +15098,7 @@
       </c>
       <c r="AG105" s="16"/>
     </row>
-    <row r="106" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>118</v>
       </c>
@@ -15187,7 +15197,7 @@
       </c>
       <c r="AG106" s="16"/>
     </row>
-    <row r="107" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>119</v>
       </c>
@@ -15286,7 +15296,7 @@
       </c>
       <c r="AG107" s="16"/>
     </row>
-    <row r="108" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>120</v>
       </c>
@@ -15385,7 +15395,7 @@
       </c>
       <c r="AG108" s="16"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>5</v>
       </c>
@@ -15423,7 +15433,7 @@
       <c r="AG110" s="7"/>
       <c r="AH110" s="7"/>
     </row>
-    <row r="111" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="B111">
         <v>2020</v>
@@ -15519,7 +15529,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="112" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
         <v>37</v>
       </c>
@@ -15648,7 +15658,7 @@
         <v>0.28341347327314187</v>
       </c>
     </row>
-    <row r="113" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
         <v>38</v>
       </c>
@@ -15777,7 +15787,7 @@
         <v>5.3431788208629594E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
         <v>41</v>
       </c>
@@ -15906,7 +15916,7 @@
         <v>0.14533138913393187</v>
       </c>
     </row>
-    <row r="115" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
         <v>51</v>
       </c>
@@ -16035,83 +16045,83 @@
         <v>0.10842115102443392</v>
       </c>
     </row>
-    <row r="116" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="13"/>
     </row>
-    <row r="117" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13"/>
       <c r="Q117" s="16"/>
     </row>
-    <row r="118" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13"/>
     </row>
-    <row r="119" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13"/>
     </row>
-    <row r="120" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13"/>
     </row>
-    <row r="121" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13"/>
     </row>
-    <row r="122" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
     </row>
-    <row r="123" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13"/>
     </row>
-    <row r="124" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13"/>
     </row>
-    <row r="125" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13"/>
     </row>
-    <row r="126" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13"/>
     </row>
-    <row r="127" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13"/>
     </row>
-    <row r="128" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13"/>
     </row>
-    <row r="129" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13"/>
     </row>
-    <row r="130" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="13"/>
     </row>
-    <row r="131" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13"/>
     </row>
-    <row r="132" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="13"/>
     </row>
-    <row r="133" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13"/>
     </row>
-    <row r="134" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13"/>
     </row>
-    <row r="135" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="13"/>
     </row>
-    <row r="136" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="13"/>
     </row>
-    <row r="137" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13"/>
     </row>
-    <row r="138" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
   </sheetData>
@@ -16129,12 +16139,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -16232,7 +16242,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -16330,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -16428,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
@@ -16526,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
@@ -16624,7 +16634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -16722,7 +16732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
@@ -16820,7 +16830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -16918,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -17016,7 +17026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
@@ -17114,7 +17124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
@@ -17212,7 +17222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -17310,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -17408,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
@@ -17506,7 +17516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
@@ -17604,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
@@ -17702,7 +17712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
@@ -17817,12 +17827,12 @@
       <selection activeCell="B2" sqref="B2:AF26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -17920,7 +17930,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -18018,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -18116,7 +18126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -18214,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -18312,7 +18322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -18410,7 +18420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -18508,7 +18518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -18606,7 +18616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -18704,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -18802,7 +18812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -18900,7 +18910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -18998,7 +19008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -19096,7 +19106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -19194,7 +19204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -19292,7 +19302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -19390,7 +19400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -19488,7 +19498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -19586,7 +19596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -19684,7 +19694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -19782,7 +19792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -19880,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -19978,7 +19988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -20076,7 +20086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -20174,7 +20184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -20272,7 +20282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -20387,12 +20397,12 @@
       <selection activeCell="B2" sqref="B2:AF26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -20490,7 +20500,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -20619,7 +20629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -20748,7 +20758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -20877,7 +20887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -21006,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -21135,7 +21145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -21264,7 +21274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -21393,7 +21403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -21522,7 +21532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -21651,7 +21661,7 @@
         <v>0.24740998426832267</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -21780,7 +21790,7 @@
         <v>4.6644069978229112E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -21909,7 +21919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -22038,7 +22048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -22167,7 +22177,7 @@
         <v>0.12686918615427389</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -22296,7 +22306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -22425,7 +22435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -22554,7 +22564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -22683,7 +22693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -22812,7 +22822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -22941,7 +22951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -23070,7 +23080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -23199,7 +23209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -23328,7 +23338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -23457,7 +23467,7 @@
         <v>9.4647847752306197E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -23586,7 +23596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
